--- a/BDA_Afo-Liste_TechDok_rbs_bez.xlsx
+++ b/BDA_Afo-Liste_TechDok_rbs_bez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra Großmann KLS\Documents\BDA\Bausteindokumentation\RBS\22.04.2021\rbs_baustein_req_v2\rbs_baustein_req_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra Großmann KLS\Documents\BDA\Bausteindokumentation\SKB\28.05.2021\RBS\rbs_baustein_req_v2\rbs_baustein_req_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D64585-9F2D-4B6C-9D9E-84F5F38E7850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A481CF2-EC51-49CA-AD9E-E31B67FB4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8472" yWindow="1296" windowWidth="11460" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rbs_bez" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>XPathQuerySelect</t>
   </si>
@@ -395,6 +395,12 @@
       <t xml:space="preserve">
  </t>
     </r>
+  </si>
+  <si>
+    <t>XPathQueryParameters</t>
+  </si>
+  <si>
+    <t>//rbs:rbs-bez[@beznr=$selectedBezirk]/rbs:rbs-ot</t>
   </si>
 </sst>
 </file>
@@ -729,12 +735,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,84 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1144,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -1794,15 +1800,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="23.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37" style="18" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" style="18" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -1823,10 +1831,10 @@
       <c r="D1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
@@ -1865,8 +1873,8 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="13" t="s">
@@ -1883,623 +1891,645 @@
       <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="40" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="46">
-        <v>44300</v>
-      </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="43"/>
+      <c r="M3" s="38">
+        <v>44344</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="44"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="44"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="44"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="44"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="44"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="44"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="44"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="44"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="45"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="25" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="40" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="46">
-        <v>44300</v>
-      </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="43"/>
+      <c r="M13" s="38">
+        <v>44344</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="44"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="44"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="44"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="44"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="14" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="44"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="44"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="14" t="s">
-        <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="44"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="45"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G22" s="31"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="40" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="48">
-        <v>44300</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="14" t="s">
+      <c r="M24" s="25">
+        <v>44344</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="25" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="40"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="40" t="s">
+      <c r="F26" s="52"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I26" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="48">
-        <v>44300</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="51"/>
-    </row>
-    <row r="26" spans="1:16" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="15" t="s">
+      <c r="M26" s="25">
+        <v>44344</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="52"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="J13:J22"/>
-    <mergeCell ref="I13:I22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="J3:J12"/>
     <mergeCell ref="I3:I12"/>
     <mergeCell ref="H3:H12"/>
     <mergeCell ref="G3:G12"/>
-    <mergeCell ref="P13:P22"/>
-    <mergeCell ref="O13:O22"/>
-    <mergeCell ref="N13:N22"/>
-    <mergeCell ref="M13:M22"/>
-    <mergeCell ref="L13:L22"/>
-    <mergeCell ref="K13:K22"/>
+    <mergeCell ref="P13:P23"/>
+    <mergeCell ref="O13:O23"/>
+    <mergeCell ref="N13:N23"/>
+    <mergeCell ref="M13:M23"/>
+    <mergeCell ref="L13:L23"/>
+    <mergeCell ref="K13:K23"/>
     <mergeCell ref="P3:P12"/>
     <mergeCell ref="O3:O12"/>
     <mergeCell ref="N3:N12"/>
     <mergeCell ref="M3:M12"/>
     <mergeCell ref="L3:L12"/>
     <mergeCell ref="K3:K12"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="J13:J23"/>
+    <mergeCell ref="I13:I23"/>
+    <mergeCell ref="H13:H23"/>
+    <mergeCell ref="G13:G23"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
